--- a/08mm.xlsx
+++ b/08mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Projects\pyt_Semi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C768A8F-C6F0-4C2C-9F29-D282E2B8D51C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D43A96-6773-467A-A85F-F58968EEB023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -136,10 +136,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -952,6 +952,36 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.1650909812873445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.591328448150822E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0600668433947834E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5713061670192281E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1250464190241554E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7212875994095623E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3600297081754562E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0412727453218335E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6501671084869358E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3126160475603496E-4</c:v>
+                </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1569,66 +1599,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Vergleich Experiment</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1645,8 +1620,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1744,7 +1721,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D46-46BE-A413-76AF552AB4B6}"/>
@@ -1766,8 +1743,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1865,7 +1844,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D46-46BE-A413-76AF552AB4B6}"/>
@@ -1887,8 +1866,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1986,7 +1967,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D46-46BE-A413-76AF552AB4B6}"/>
@@ -2008,8 +1989,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2107,7 +2090,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1D46-46BE-A413-76AF552AB4B6}"/>
@@ -2129,8 +2112,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2228,10 +2213,133 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1D46-46BE-A413-76AF552AB4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.08. II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15345517928970601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14249409505472699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131533010819748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12057192658476901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10961084234979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8649758114810901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7688673879831897E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6727589644852906E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5766505409873902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.48054211748948E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1650909812873445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.591328448150822E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0600668433947834E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5713061670192281E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1250464190241554E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7212875994095623E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3600297081754562E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0412727453218335E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6501671084869358E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3126160475603496E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B617-4F19-913E-D1A8E8CB6470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2267,6 +2375,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+                  <a:t>Strömungsgeschwindigkeit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [m/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2329,6 +2497,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Strömungswiderstand</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3605,16 +3833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1203325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3965,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F3385-8AE3-4479-AC98-5F00D49C7B32}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3990,16 +4218,16 @@
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -4046,10 +4274,13 @@
       <c r="F3" s="1">
         <v>5.585008949563282E-3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>3.8985252583204587E-3</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f>((9.81*0.0003994)/0.022152139484538)*B3^2</f>
+        <v>4.1650909812873445E-3</v>
+      </c>
       <c r="I3" s="1">
         <v>2.4830551074996005E-4</v>
       </c>
@@ -4076,10 +4307,13 @@
       <c r="F4" s="1">
         <v>4.8156454718173191E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>3.3614835135518236E-3</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H12" si="0">((9.81*0.0003994)/0.022152139484538)*B4^2</f>
+        <v>3.591328448150822E-3</v>
+      </c>
       <c r="I4" s="1">
         <v>2.1486757418308046E-4</v>
       </c>
@@ -4106,10 +4340,13 @@
       <c r="F5" s="1">
         <v>4.1032718813117982E-3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>2.8642226387660509E-3</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0600668433947834E-3</v>
+      </c>
       <c r="I5" s="1">
         <v>1.8384530356330348E-4</v>
       </c>
@@ -4136,10 +4373,13 @@
       <c r="F6" s="1">
         <v>3.4478881780467202E-3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>2.4067426339631401E-3</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5713061670192281E-3</v>
+      </c>
       <c r="I6" s="1">
         <v>1.5523869889062938E-4</v>
       </c>
@@ -4166,10 +4406,13 @@
       <c r="F7" s="1">
         <v>2.8494943620220826E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1.9890434991430912E-3</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1250464190241554E-3</v>
+      </c>
       <c r="I7" s="1">
         <v>1.2904776016505807E-4</v>
       </c>
@@ -4196,10 +4439,13 @@
       <c r="F8" s="1">
         <v>2.308090433237887E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1.6111252343059003E-3</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7212875994095623E-3</v>
+      </c>
       <c r="I8" s="1">
         <v>1.0527248738658959E-4</v>
       </c>
@@ -4226,10 +4472,13 @@
       <c r="F9" s="1">
         <v>1.8236763916941328E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1.2729878394515753E-3</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3600297081754562E-3</v>
+      </c>
       <c r="I9" s="1">
         <v>8.3912880555223957E-5</v>
       </c>
@@ -4256,10 +4505,13 @@
       <c r="F10" s="1">
         <v>1.3962522373908205E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>9.7463131458011228E-4</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0412727453218335E-3</v>
+      </c>
       <c r="I10" s="1">
         <v>6.4968939670961097E-5</v>
       </c>
@@ -4286,10 +4538,13 @@
       <c r="F11" s="1">
         <v>1.0258179703279495E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>7.1605565969151057E-4</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6501671084869358E-4</v>
+      </c>
       <c r="I11" s="1">
         <v>4.8440664733801082E-5</v>
       </c>
@@ -4316,10 +4571,13 @@
       <c r="F12" s="1">
         <v>7.1237359050552065E-4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>4.9726087478576912E-4</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3126160475603496E-4</v>
+      </c>
       <c r="I12" s="1">
         <v>3.4328055743743857E-5</v>
       </c>
@@ -4376,7 +4634,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>2.2152139484538001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
       <c r="I20" s="5"/>
     </row>
   </sheetData>
